--- a/medicine/Enfance/Samedi-Jeunesse/Samedi-Jeunesse.xlsx
+++ b/medicine/Enfance/Samedi-Jeunesse/Samedi-Jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Samedi-Jeunesse est un magazine mensuel de bande dessinée belge, créé en 1957 par les Éditions du Samedi.
@@ -512,12 +524,49 @@
           <t>Période 1957 - 1973</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'éditeur responsable est successivement A. Leleux, 105 rue royale à Bruxelles, puis André Lepers, 26 rue Saint-Laurent à Bruxelles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éditeur responsable est successivement A. Leleux, 105 rue royale à Bruxelles, puis André Lepers, 26 rue Saint-Laurent à Bruxelles.
 Le mensuel publie chaque mois plusieurs récits complets en noir et blanc destinés aux garçons et aux filles, et déjà publiés pour la plupart, dans des revues et journaux américains (Bob Rilet, Luc Bradefer, Cisco Kid...), belges (Corentin, Dag et Heidi, Félix, Néron, Primus et Musette, Sandy et Hoppy, Zig et Puce, ... ), espagnols (Dan Jensen, La Pension des bleuets, ... ), français (Alerte à la Terre, Blason d'argent, Sitting Bull), et hollandais (Les Aventures du capitaine Rob, Otto, ...). 
-Auteurs publiés
-Béoc[1], Les Aventures de Pluche, Dudule
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Samedi-Jeunesse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samedi-Jeunesse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Période 1957 - 1973</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auteurs publiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Béoc, Les Aventures de Pluche, Dudule
 Berck, Ken Krom
 Jesús Blasco, Dan Jensen
 Jeff Broeckx et Maria De Winter, Dag et Heidi
@@ -551,36 +600,73 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Samedi-Jeunesse</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Samedi-Jeunesse</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Période 1973 - 1976</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À partir du no 191 de septembre 1973, le mensuel est repris par les éditions Rossel, qui le transforment en album couleur.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir du no 191 de septembre 1973, le mensuel est repris par les éditions Rossel, qui le transforment en album couleur.
 Le dernier no , le 229, est sorti en novembre 1976.
-Auteurs publiés
-Dino Attanasio, Signor Spaghetti
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Samedi-Jeunesse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samedi-Jeunesse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Période 1973 - 1976</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteurs publiés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dino Attanasio, Signor Spaghetti
 Jo-El Azara, Taka Takata
 Mic Delinx et Christian Godard, La Jungle en folie
 Christian Denayer et André-Paul Duchâteau, Alain Chevallier, Yalek
